--- a/regionseng/5/gdp and va/gdp and va.xlsx
+++ b/regionseng/5/gdp and va/gdp and va.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z-msk\Desktop\regionuli portalisTvis_.2019\regionuli portalisTvis\5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\რეგიონული მშპ\რეგიონული მშპ 2010-2022\გასავრცელებელი მონაცემები\regionuli portalisTvis_2022\regionuli portalisTvis\სამცხე-ჯავახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0BD2420-3A75-4F0C-BF5E-281BA70E10E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20895" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Samtskhe" sheetId="14" r:id="rId1"/>
@@ -18,14 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Samtskhe!$A$1:$K$26</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -187,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -404,10 +396,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_ea_bolo_II_form_07" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Style 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal_ea_bolo_II_form_07" xfId="2"/>
+    <cellStyle name="Style 1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,23 +490,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -550,23 +525,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -742,15 +700,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q10" sqref="Q10"/>
       <selection pane="topRight" activeCell="Q10" sqref="Q10"/>
       <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2:L26"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -804,6 +762,15 @@
       <c r="L2" s="18">
         <v>2019</v>
       </c>
+      <c r="M2" s="18">
+        <v>2020</v>
+      </c>
+      <c r="N2" s="18">
+        <v>2021</v>
+      </c>
+      <c r="O2" s="18">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -813,34 +780,43 @@
         <v>23</v>
       </c>
       <c r="C3" s="7">
-        <v>226.92039939731634</v>
+        <v>241.63774673008109</v>
       </c>
       <c r="D3" s="7">
-        <v>275.45998802134801</v>
+        <v>300.92519322695233</v>
       </c>
       <c r="E3" s="7">
-        <v>222.71372281170648</v>
+        <v>239.08155676091133</v>
       </c>
       <c r="F3" s="7">
-        <v>235.84428892146849</v>
+        <v>257.02498491631769</v>
       </c>
       <c r="G3" s="7">
-        <v>278.33598642467609</v>
+        <v>306.24125129610337</v>
       </c>
       <c r="H3" s="7">
-        <v>226.28190234394168</v>
+        <v>251.84244738896265</v>
       </c>
       <c r="I3" s="7">
-        <v>253.63168451262044</v>
+        <v>283.75881312120498</v>
       </c>
       <c r="J3" s="7">
-        <v>217.85155993678734</v>
+        <v>244.9651096637663</v>
       </c>
       <c r="K3" s="7">
-        <v>269.00827480817412</v>
+        <v>306.03846573113117</v>
       </c>
       <c r="L3" s="7">
-        <v>256.00746591131616</v>
+        <v>291.48455758277441</v>
+      </c>
+      <c r="M3" s="7">
+        <v>345.0583620357192</v>
+      </c>
+      <c r="N3" s="7">
+        <v>385.09051377534723</v>
+      </c>
+      <c r="O3" s="7">
+        <v>456.07959810717603</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -851,34 +827,43 @@
         <v>24</v>
       </c>
       <c r="C4" s="7">
-        <v>4.1080326599736061</v>
+        <v>1.8394100318229309</v>
       </c>
       <c r="D4" s="7">
-        <v>4.7569413809551344</v>
+        <v>2.1445105436629159</v>
       </c>
       <c r="E4" s="7">
-        <v>7.1521064127670737</v>
+        <v>1.7942569399116139</v>
       </c>
       <c r="F4" s="7">
-        <v>9.2808541539668994</v>
+        <v>0.94723535519454372</v>
       </c>
       <c r="G4" s="7">
-        <v>13.326441608374406</v>
+        <v>1.3022610332912463</v>
       </c>
       <c r="H4" s="7">
-        <v>18.502748611792011</v>
+        <v>1.5268629743767057</v>
       </c>
       <c r="I4" s="7">
-        <v>19.769359358989423</v>
+        <v>2.9431535250453189</v>
       </c>
       <c r="J4" s="7">
-        <v>23.577600018569402</v>
+        <v>2.9710780207535255</v>
       </c>
       <c r="K4" s="7">
-        <v>23.939526685500098</v>
+        <v>3.0011134024896799</v>
       </c>
       <c r="L4" s="7">
-        <v>37.805126769596129</v>
+        <v>7.2747877284246174</v>
+      </c>
+      <c r="M4" s="7">
+        <v>7.3049291282911764</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4.9205266793473923</v>
+      </c>
+      <c r="O4" s="7">
+        <v>6.706788129925453</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -889,34 +874,43 @@
         <v>25</v>
       </c>
       <c r="C5" s="7">
-        <v>52.891313814160441</v>
+        <v>83.167442396149355</v>
       </c>
       <c r="D5" s="7">
-        <v>60.795367887140678</v>
+        <v>82.484924796578412</v>
       </c>
       <c r="E5" s="7">
-        <v>97.091995748424281</v>
+        <v>133.10616336937855</v>
       </c>
       <c r="F5" s="7">
-        <v>138.16956687476892</v>
+        <v>195.13918617809111</v>
       </c>
       <c r="G5" s="7">
-        <v>185.74894032546419</v>
+        <v>258.67438095655541</v>
       </c>
       <c r="H5" s="7">
-        <v>156.26957204215779</v>
+        <v>196.05988797133813</v>
       </c>
       <c r="I5" s="7">
-        <v>143.36791279988148</v>
+        <v>190.38288403768246</v>
       </c>
       <c r="J5" s="7">
-        <v>196.66173636768309</v>
+        <v>258.05698440320907</v>
       </c>
       <c r="K5" s="7">
-        <v>206.32287139120402</v>
+        <v>273.72817822013417</v>
       </c>
       <c r="L5" s="7">
-        <v>276.8943000186693</v>
+        <v>360.92373031289446</v>
+      </c>
+      <c r="M5" s="7">
+        <v>350.00130900721518</v>
+      </c>
+      <c r="N5" s="7">
+        <v>412.30075569073244</v>
+      </c>
+      <c r="O5" s="7">
+        <v>317.734004042442</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -927,34 +921,43 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>13.440171627657307</v>
+        <v>1.9368650561910028</v>
       </c>
       <c r="D6" s="7">
-        <v>12.649941624471492</v>
+        <v>4.2413027322013619</v>
       </c>
       <c r="E6" s="7">
-        <v>16.667965286057051</v>
+        <v>8.7150517099543698</v>
       </c>
       <c r="F6" s="7">
-        <v>27.609540058233108</v>
+        <v>5.590769483308935</v>
       </c>
       <c r="G6" s="7">
-        <v>36.851205707954691</v>
+        <v>5.9723812413456496</v>
       </c>
       <c r="H6" s="7">
-        <v>29.941858297250885</v>
+        <v>31.786449610029042</v>
       </c>
       <c r="I6" s="7">
-        <v>33.519344075165947</v>
+        <v>25.915249984296601</v>
       </c>
       <c r="J6" s="7">
-        <v>43.569883945285419</v>
+        <v>30.072347096627809</v>
       </c>
       <c r="K6" s="7">
-        <v>51.316839189330842</v>
+        <v>37.718038622010283</v>
       </c>
       <c r="L6" s="7">
-        <v>63.968941986991055</v>
+        <v>37.499113132770098</v>
+      </c>
+      <c r="M6" s="7">
+        <v>47.490834628604169</v>
+      </c>
+      <c r="N6" s="7">
+        <v>47.21973803554107</v>
+      </c>
+      <c r="O6" s="7">
+        <v>54.125793420313904</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -965,34 +968,43 @@
         <v>27</v>
       </c>
       <c r="C7" s="7">
-        <v>5.6259994878122566</v>
+        <v>1.157409968490722</v>
       </c>
       <c r="D7" s="7">
-        <v>4.2669352334071284</v>
+        <v>0.85997735481244664</v>
       </c>
       <c r="E7" s="7">
-        <v>7.956027914536862</v>
+        <v>1.0129413250943708</v>
       </c>
       <c r="F7" s="7">
-        <v>8.6298557029033613</v>
+        <v>0.81653061491178325</v>
       </c>
       <c r="G7" s="7">
-        <v>9.2060389689547009</v>
+        <v>0.69798156209723128</v>
       </c>
       <c r="H7" s="7">
-        <v>13.31233186983863</v>
+        <v>1.1982538120973132</v>
       </c>
       <c r="I7" s="7">
-        <v>14.393554726517523</v>
+        <v>1.415229029006055</v>
       </c>
       <c r="J7" s="7">
-        <v>18.17576072047963</v>
+        <v>1.9361784449183024</v>
       </c>
       <c r="K7" s="7">
-        <v>15.326572552016826</v>
+        <v>1.3264155889151401</v>
       </c>
       <c r="L7" s="7">
-        <v>22.218657328590332</v>
+        <v>1.529206147244033</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2.2570133977733504</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0.25023800039457905</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.23463540437683572</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1003,34 +1015,43 @@
         <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>20.183236000322793</v>
+        <v>21.364154569192127</v>
       </c>
       <c r="D8" s="7">
-        <v>13.164488869483554</v>
+        <v>13.995002524597652</v>
       </c>
       <c r="E8" s="7">
-        <v>21.211137105773137</v>
+        <v>20.002505819195051</v>
       </c>
       <c r="F8" s="7">
-        <v>58.409270855181767</v>
+        <v>58.908467168708867</v>
       </c>
       <c r="G8" s="7">
-        <v>24.997010734634287</v>
+        <v>25.695856157266423</v>
       </c>
       <c r="H8" s="7">
-        <v>15.741601230649914</v>
+        <v>17.040325594431835</v>
       </c>
       <c r="I8" s="7">
-        <v>36.914551837857559</v>
+        <v>37.461425935772766</v>
       </c>
       <c r="J8" s="7">
-        <v>45.869482225634123</v>
+        <v>52.162780461928556</v>
       </c>
       <c r="K8" s="7">
-        <v>71.132498354033032</v>
+        <v>82.017804635398278</v>
       </c>
       <c r="L8" s="7">
-        <v>87.249633613000256</v>
+        <v>88.12131084725975</v>
+      </c>
+      <c r="M8" s="7">
+        <v>84.46321199137553</v>
+      </c>
+      <c r="N8" s="7">
+        <v>90.757981233901731</v>
+      </c>
+      <c r="O8" s="7">
+        <v>91.079356559992746</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1041,34 +1062,43 @@
         <v>29</v>
       </c>
       <c r="C9" s="7">
-        <v>32.670469995639436</v>
+        <v>31.894748345109612</v>
       </c>
       <c r="D9" s="7">
-        <v>28.999829594612898</v>
+        <v>28.446971199817259</v>
       </c>
       <c r="E9" s="7">
-        <v>31.136053944648285</v>
+        <v>30.249031162631237</v>
       </c>
       <c r="F9" s="7">
-        <v>27.374651095345495</v>
+        <v>27.826237118811346</v>
       </c>
       <c r="G9" s="7">
-        <v>31.558563862119946</v>
+        <v>31.255674896556233</v>
       </c>
       <c r="H9" s="7">
-        <v>28.249638384766779</v>
+        <v>28.416524364336215</v>
       </c>
       <c r="I9" s="7">
-        <v>36.751499303411876</v>
+        <v>36.434801603877204</v>
       </c>
       <c r="J9" s="7">
-        <v>52.354231698700595</v>
+        <v>51.380965873502468</v>
       </c>
       <c r="K9" s="7">
-        <v>49.719727994498008</v>
+        <v>49.791941603444357</v>
       </c>
       <c r="L9" s="7">
-        <v>59.589118662896254</v>
+        <v>59.833480149107046</v>
+      </c>
+      <c r="M9" s="7">
+        <v>44.741232255489827</v>
+      </c>
+      <c r="N9" s="7">
+        <v>47.447920938621863</v>
+      </c>
+      <c r="O9" s="7">
+        <v>54.051983624554957</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1079,34 +1109,43 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>0.96169253625984952</v>
+        <v>0.9961854437086276</v>
       </c>
       <c r="D10" s="7">
-        <v>1.7184908508744965</v>
+        <v>1.8431019985102459</v>
       </c>
       <c r="E10" s="7">
-        <v>3.4273720334832851</v>
+        <v>3.65961901229652</v>
       </c>
       <c r="F10" s="7">
-        <v>4.4593994081622848</v>
+        <v>4.4793469904663104</v>
       </c>
       <c r="G10" s="7">
-        <v>4.3650689790772335</v>
+        <v>4.3971030786798506</v>
       </c>
       <c r="H10" s="7">
-        <v>5.6176747762364911</v>
+        <v>5.7132254673053389</v>
       </c>
       <c r="I10" s="7">
-        <v>10.096589005305024</v>
+        <v>10.16200950565481</v>
       </c>
       <c r="J10" s="7">
-        <v>12.794623732123098</v>
+        <v>11.100673946456418</v>
       </c>
       <c r="K10" s="7">
-        <v>6.7060407803380393</v>
+        <v>6.1023247103749023</v>
       </c>
       <c r="L10" s="7">
-        <v>9.8321573531561572</v>
+        <v>10.011148147553236</v>
+      </c>
+      <c r="M10" s="7">
+        <v>8.5886593924854875</v>
+      </c>
+      <c r="N10" s="7">
+        <v>12.558572047605139</v>
+      </c>
+      <c r="O10" s="7">
+        <v>21.818530111022227</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1117,34 +1156,43 @@
         <v>31</v>
       </c>
       <c r="C11" s="7">
-        <v>7.1727277871639217</v>
+        <v>6.341985353995554</v>
       </c>
       <c r="D11" s="7">
-        <v>5.3184227643970274</v>
+        <v>4.5733824228099138</v>
       </c>
       <c r="E11" s="7">
-        <v>9.6880841924138377</v>
+        <v>8.5803164304264428</v>
       </c>
       <c r="F11" s="7">
-        <v>16.340223432707614</v>
+        <v>15.011823561248599</v>
       </c>
       <c r="G11" s="7">
-        <v>21.061546964967921</v>
+        <v>20.853638133101118</v>
       </c>
       <c r="H11" s="7">
-        <v>37.053270587809088</v>
+        <v>34.855885886521278</v>
       </c>
       <c r="I11" s="7">
-        <v>39.8746421542333</v>
+        <v>43.812710417307898</v>
       </c>
       <c r="J11" s="7">
-        <v>67.756697758252685</v>
+        <v>69.012520970018159</v>
       </c>
       <c r="K11" s="7">
-        <v>63.438225535248066</v>
+        <v>61.627548169368154</v>
       </c>
       <c r="L11" s="7">
-        <v>65.991779692147276</v>
+        <v>68.282720408242668</v>
+      </c>
+      <c r="M11" s="7">
+        <v>73.333657001531193</v>
+      </c>
+      <c r="N11" s="7">
+        <v>99.687701693346142</v>
+      </c>
+      <c r="O11" s="7">
+        <v>102.9260927432114</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1155,34 +1203,43 @@
         <v>32</v>
       </c>
       <c r="C12" s="7">
-        <v>16.631906927552006</v>
+        <v>18.372563839441934</v>
       </c>
       <c r="D12" s="7">
-        <v>19.589923028924922</v>
+        <v>20.254874786857453</v>
       </c>
       <c r="E12" s="7">
-        <v>13.869430057213785</v>
+        <v>13.85369915541885</v>
       </c>
       <c r="F12" s="7">
-        <v>14.323505888473823</v>
+        <v>13.989418385197219</v>
       </c>
       <c r="G12" s="7">
-        <v>14.540757574677709</v>
+        <v>14.153669053484006</v>
       </c>
       <c r="H12" s="7">
-        <v>10.099556142700644</v>
+        <v>9.96760114724737</v>
       </c>
       <c r="I12" s="7">
-        <v>12.394521583408427</v>
+        <v>13.072596242767537</v>
       </c>
       <c r="J12" s="7">
-        <v>21.105943406926517</v>
+        <v>20.925702107228858</v>
       </c>
       <c r="K12" s="7">
-        <v>13.891835349778116</v>
+        <v>14.417580361087163</v>
       </c>
       <c r="L12" s="7">
-        <v>20.251373494463525</v>
+        <v>20.265690209305522</v>
+      </c>
+      <c r="M12" s="7">
+        <v>12.726047508301745</v>
+      </c>
+      <c r="N12" s="7">
+        <v>12.266254479822905</v>
+      </c>
+      <c r="O12" s="7">
+        <v>14.762786811674372</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1193,34 +1250,43 @@
         <v>33</v>
       </c>
       <c r="C13" s="7">
-        <v>25.781600498699145</v>
+        <v>30.04766345779456</v>
       </c>
       <c r="D13" s="7">
-        <v>43.292156419834015</v>
+        <v>51.718725051763606</v>
       </c>
       <c r="E13" s="7">
-        <v>12.433112645887247</v>
+        <v>15.693190648717255</v>
       </c>
       <c r="F13" s="7">
-        <v>49.588275654964335</v>
+        <v>53.335260522786491</v>
       </c>
       <c r="G13" s="7">
-        <v>77.622000705499801</v>
+        <v>80.464646414214599</v>
       </c>
       <c r="H13" s="7">
-        <v>28.075980829700953</v>
+        <v>26.32003231914253</v>
       </c>
       <c r="I13" s="7">
-        <v>42.499954639196041</v>
+        <v>38.476580752663793</v>
       </c>
       <c r="J13" s="7">
-        <v>37.202483886986521</v>
+        <v>34.414424171726964</v>
       </c>
       <c r="K13" s="7">
-        <v>37.048104920824009</v>
+        <v>34.053232842520366</v>
       </c>
       <c r="L13" s="7">
-        <v>54.975076752460282</v>
+        <v>51.983680870374023</v>
+      </c>
+      <c r="M13" s="7">
+        <v>42.795501547545996</v>
+      </c>
+      <c r="N13" s="7">
+        <v>62.923147814555676</v>
+      </c>
+      <c r="O13" s="7">
+        <v>94.976632940549806</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1231,34 +1297,43 @@
         <v>34</v>
       </c>
       <c r="C14" s="7">
-        <v>100.73532508592335</v>
+        <v>100.22777282079721</v>
       </c>
       <c r="D14" s="7">
-        <v>103.54523351668487</v>
+        <v>103.56641112444045</v>
       </c>
       <c r="E14" s="7">
-        <v>104.71499220168853</v>
+        <v>104.81742864151319</v>
       </c>
       <c r="F14" s="7">
-        <v>111.24859778324367</v>
+        <v>109.19812630590447</v>
       </c>
       <c r="G14" s="7">
-        <v>118.56433823808312</v>
+        <v>117.35848277242744</v>
       </c>
       <c r="H14" s="7">
-        <v>126.38155648633061</v>
+        <v>125.61554074271369</v>
       </c>
       <c r="I14" s="7">
-        <v>130.68635044861216</v>
+        <v>128.62755144797939</v>
       </c>
       <c r="J14" s="7">
-        <v>135.69905489300291</v>
+        <v>134.72550132422219</v>
       </c>
       <c r="K14" s="7">
-        <v>138.3535182347442</v>
+        <v>136.93831068577563</v>
       </c>
       <c r="L14" s="7">
-        <v>151.59130495093947</v>
+        <v>149.50278000501373</v>
+      </c>
+      <c r="M14" s="7">
+        <v>149.08171128050483</v>
+      </c>
+      <c r="N14" s="7">
+        <v>151.05284379679492</v>
+      </c>
+      <c r="O14" s="7">
+        <v>174.33616155179067</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -1269,38 +1344,44 @@
         <v>35</v>
       </c>
       <c r="C15" s="7">
-        <v>6.2775121009507995</v>
+        <v>5.7396438268096954</v>
       </c>
       <c r="D15" s="7">
-        <v>6.0196086762960466</v>
+        <v>5.8875047480406151</v>
       </c>
       <c r="E15" s="7">
-        <v>20.244588737739889</v>
+        <v>20.54100477002574</v>
       </c>
       <c r="F15" s="7">
-        <v>38.893976671246605</v>
+        <v>40.344066900567505</v>
       </c>
       <c r="G15" s="7">
-        <v>31.605965427341168</v>
+        <v>31.732385934306112</v>
       </c>
       <c r="H15" s="7">
-        <v>10.25858897997497</v>
+        <v>9.9940436229522494</v>
       </c>
       <c r="I15" s="7">
-        <v>14.220390142585183</v>
+        <v>13.708610317683519</v>
       </c>
       <c r="J15" s="7">
-        <v>10.507012317615247</v>
+        <v>10.318169018513846</v>
       </c>
       <c r="K15" s="7">
-        <v>10.289663539939541</v>
+        <v>10.393168940308009</v>
       </c>
       <c r="L15" s="7">
-        <v>17.222243415371821</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>17.036062052287765</v>
+      </c>
+      <c r="M15" s="7">
+        <v>29.304081524223907</v>
+      </c>
+      <c r="N15" s="7">
+        <v>22.306743494925581</v>
+      </c>
+      <c r="O15" s="7">
+        <v>18.540733385106591</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1315,38 +1396,44 @@
         <v>36</v>
       </c>
       <c r="C16" s="7">
-        <v>1.7500164807636829</v>
+        <v>1.530011332802514</v>
       </c>
       <c r="D16" s="7">
-        <v>2.1799545990132843</v>
+        <v>2.2371568431875692</v>
       </c>
       <c r="E16" s="7">
-        <v>3.5418572118080291</v>
+        <v>3.5393519101146831</v>
       </c>
       <c r="F16" s="7">
-        <v>7.10199590203292</v>
+        <v>7.1901659700778513</v>
       </c>
       <c r="G16" s="7">
-        <v>7.6479099826735926</v>
+        <v>7.7374534431029565</v>
       </c>
       <c r="H16" s="7">
-        <v>2.3479662782701878</v>
+        <v>2.3537239780045192</v>
       </c>
       <c r="I16" s="7">
-        <v>3.6965604348783243</v>
+        <v>3.9408144600457642</v>
       </c>
       <c r="J16" s="7">
-        <v>3.6239287779009799</v>
+        <v>3.7505221506543407</v>
       </c>
       <c r="K16" s="7">
-        <v>8.7635447203618924</v>
+        <v>9.0110855395807352</v>
       </c>
       <c r="L16" s="7">
-        <v>12.110059384741097</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>12.139457002197902</v>
+      </c>
+      <c r="M16" s="7">
+        <v>3.5942105715025039</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6.7907025159740755</v>
+      </c>
+      <c r="O16" s="7">
+        <v>5.5698995208344808</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1361,38 +1448,44 @@
         <v>37</v>
       </c>
       <c r="C17" s="7">
-        <v>68.078131276824564</v>
+        <v>73.455908976004011</v>
       </c>
       <c r="D17" s="7">
-        <v>33.869889492552105</v>
+        <v>36.246612039660448</v>
       </c>
       <c r="E17" s="7">
-        <v>70.308121761688568</v>
+        <v>72.907371037434203</v>
       </c>
       <c r="F17" s="7">
-        <v>62.442497352313993</v>
+        <v>68.80025175608435</v>
       </c>
       <c r="G17" s="7">
-        <v>91.158260424792616</v>
+        <v>100.66292134977741</v>
       </c>
       <c r="H17" s="7">
-        <v>46.970550950485773</v>
+        <v>46.609110493878717</v>
       </c>
       <c r="I17" s="7">
-        <v>86.213807378581265</v>
+        <v>85.771767751905543</v>
       </c>
       <c r="J17" s="7">
-        <v>95.244618433769745</v>
+        <v>95.244618433769787</v>
       </c>
       <c r="K17" s="7">
-        <v>93.4134008131104</v>
+        <v>89.248862157635429</v>
       </c>
       <c r="L17" s="7">
-        <v>119.42479611849492</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>119.4247961184949</v>
+      </c>
+      <c r="M17" s="7">
+        <v>139.6135728396726</v>
+      </c>
+      <c r="N17" s="7">
+        <v>180.77541792236059</v>
+      </c>
+      <c r="O17" s="7">
+        <v>181.143650494121</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1407,34 +1500,43 @@
         <v>38</v>
       </c>
       <c r="C18" s="7">
-        <v>47.290389463470127</v>
+        <v>44.106486495872332</v>
       </c>
       <c r="D18" s="7">
-        <v>63.339965742058247</v>
+        <v>60.419958927687738</v>
       </c>
       <c r="E18" s="7">
-        <v>53.544971282403893</v>
+        <v>56.679416131847773</v>
       </c>
       <c r="F18" s="7">
-        <v>50.139998557381709</v>
+        <v>50.366081780354932</v>
       </c>
       <c r="G18" s="7">
-        <v>72.855226469119785</v>
+        <v>72.444156244963168</v>
       </c>
       <c r="H18" s="7">
-        <v>84.074218893142216</v>
+        <v>84.72496443115395</v>
       </c>
       <c r="I18" s="7">
-        <v>68.735191610976756</v>
+        <v>78.229317722446538</v>
       </c>
       <c r="J18" s="7">
-        <v>72.648103990848355</v>
+        <v>78.748469813594809</v>
       </c>
       <c r="K18" s="7">
-        <v>76.356210909464181</v>
+        <v>80.027322052450216</v>
       </c>
       <c r="L18" s="7">
-        <v>97.234633314289354</v>
+        <v>100.76444088610965</v>
+      </c>
+      <c r="M18" s="7">
+        <v>114.87035523216711</v>
+      </c>
+      <c r="N18" s="7">
+        <v>138.71523685856789</v>
+      </c>
+      <c r="O18" s="7">
+        <v>150.67112568375273</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1445,34 +1547,43 @@
         <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>15.14851761394417</v>
+        <v>14.685017527626893</v>
       </c>
       <c r="D19" s="7">
-        <v>17.366174145715998</v>
+        <v>16.338478828981874</v>
       </c>
       <c r="E19" s="7">
-        <v>21.208135541385715</v>
+        <v>20.912912732171257</v>
       </c>
       <c r="F19" s="7">
-        <v>34.787257252546169</v>
+        <v>34.739138114832095</v>
       </c>
       <c r="G19" s="7">
-        <v>4.7283420688723234</v>
+        <v>4.7975418573241502</v>
       </c>
       <c r="H19" s="7">
-        <v>16.527429225913966</v>
+        <v>16.208704950093718</v>
       </c>
       <c r="I19" s="7">
-        <v>22.057022648000949</v>
+        <v>22.358087260593919</v>
       </c>
       <c r="J19" s="7">
-        <v>30.612418987121149</v>
+        <v>30.024740776993085</v>
       </c>
       <c r="K19" s="7">
-        <v>25.390802325184474</v>
+        <v>25.712165176914795</v>
       </c>
       <c r="L19" s="7">
-        <v>27.945125452905973</v>
+        <v>28.485948614504299</v>
+      </c>
+      <c r="M19" s="7">
+        <v>43.586904608850922</v>
+      </c>
+      <c r="N19" s="7">
+        <v>82.379758806660064</v>
+      </c>
+      <c r="O19" s="7">
+        <v>57.656591917503413</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1483,34 +1594,43 @@
         <v>40</v>
       </c>
       <c r="C20" s="7">
-        <v>12.770299026500792</v>
+        <v>10.371562561734597</v>
       </c>
       <c r="D20" s="7">
-        <v>16.30415037143112</v>
+        <v>19.044623151163108</v>
       </c>
       <c r="E20" s="7">
-        <v>11.271259497319353</v>
+        <v>10.947865499535167</v>
       </c>
       <c r="F20" s="7">
-        <v>6.5912598890859506</v>
+        <v>6.209860643844987</v>
       </c>
       <c r="G20" s="7">
-        <v>21.505026820604161</v>
+        <v>21.211179378909431</v>
       </c>
       <c r="H20" s="7">
-        <v>21.366630571217634</v>
+        <v>21.63297198456883</v>
       </c>
       <c r="I20" s="7">
-        <v>26.52460119738647</v>
+        <v>28.413897659186887</v>
       </c>
       <c r="J20" s="7">
-        <v>19.236654644041309</v>
+        <v>19.430394220023235</v>
       </c>
       <c r="K20" s="7">
-        <v>25.704871854132101</v>
+        <v>27.019437231766073</v>
       </c>
       <c r="L20" s="7">
-        <v>28.319657689937895</v>
+        <v>26.299255067625388</v>
+      </c>
+      <c r="M20" s="7">
+        <v>31.282118151847261</v>
+      </c>
+      <c r="N20" s="7">
+        <v>71.410022530140793</v>
+      </c>
+      <c r="O20" s="7">
+        <v>83.023614642953021</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1521,34 +1641,43 @@
         <v>41</v>
       </c>
       <c r="C21" s="7">
-        <v>8.4047997258881502</v>
+        <v>6.9549538338011123</v>
       </c>
       <c r="D21" s="7">
-        <v>10.74869129668112</v>
+        <v>8.8229649541303701</v>
       </c>
       <c r="E21" s="7">
-        <v>5.3427779824015706</v>
+        <v>6.3512273910723502</v>
       </c>
       <c r="F21" s="7">
-        <v>3.8836336582964681</v>
+        <v>3.5136172835980095</v>
       </c>
       <c r="G21" s="7">
-        <v>12.570893849400395</v>
+        <v>12.44509142907312</v>
       </c>
       <c r="H21" s="7">
-        <v>12.13105333381896</v>
+        <v>12.47814505900234</v>
       </c>
       <c r="I21" s="7">
-        <v>13.76689889815581</v>
+        <v>13.000352153614822</v>
       </c>
       <c r="J21" s="7">
-        <v>9.3556454457459761</v>
+        <v>9.1129541009702333</v>
       </c>
       <c r="K21" s="7">
-        <v>13.638230005855627</v>
+        <v>13.481364699613035</v>
       </c>
       <c r="L21" s="7">
-        <v>13.455850521279199</v>
+        <v>13.577214708988771</v>
+      </c>
+      <c r="M21" s="7">
+        <v>5.7216031710133244</v>
+      </c>
+      <c r="N21" s="7">
+        <v>10.843330536662553</v>
+      </c>
+      <c r="O21" s="7">
+        <v>12.876564290308346</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -1559,7 +1688,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="7">
-        <v>0.21428821199701828</v>
+        <v>0.2142882119970182</v>
       </c>
       <c r="D22" s="7">
         <v>0.1077994274849812</v>
@@ -1587,6 +1716,15 @@
       </c>
       <c r="L22" s="7">
         <v>0.37591556615588395</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1.0210051388189878</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0.44335947704807144</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0.24322467811098697</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -1595,43 +1733,43 @@
         <v>43</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" ref="C23:J23" si="0">SUM(C3:C22)</f>
-        <v>667.05682971881959</v>
+        <v>696.04182077942266</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>723.49395294336716</v>
+        <v>764.15947668334093</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="0"/>
-        <v>733.52371236934675</v>
+        <v>772.44491044764993</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>905.29904246450553</v>
+        <v>953.61096240248901</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="0"/>
-        <v>1058.2495251372879</v>
+        <v>1118.0980562325788</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="0"/>
-        <v>889.20412983599908</v>
+        <v>924.34470179815651</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="0"/>
-        <v>1009.1144367557639</v>
+        <v>1057.8858529287361</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="0"/>
-        <v>1114.2998742594057</v>
+        <v>1158.8065680708096</v>
       </c>
       <c r="K23" s="3">
-        <f>SUM(K3:K22)</f>
-        <v>1200.1543880047136</v>
+        <v>1262.0479884118936</v>
       </c>
       <c r="L23" s="3">
-        <v>1422.4632179974026</v>
+        <v>1464.8152955573282</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1536.8363204129344</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1840.1407663283508</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1898.557768059721</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -1640,34 +1778,43 @@
         <v>44</v>
       </c>
       <c r="C24" s="5">
-        <v>91.32772666573824</v>
+        <v>96.964550479860378</v>
       </c>
       <c r="D24" s="5">
-        <v>95.325797554821818</v>
+        <v>102.07566835219181</v>
       </c>
       <c r="E24" s="5">
-        <v>93.877062569024474</v>
+        <v>100.62424504250393</v>
       </c>
       <c r="F24" s="5">
-        <v>113.50823706045475</v>
+        <v>123.16483707688161</v>
       </c>
       <c r="G24" s="5">
-        <v>138.1701199787814</v>
+        <v>150.86512156220877</v>
       </c>
       <c r="H24" s="5">
-        <v>114.72835990728787</v>
+        <v>122.48424236743406</v>
       </c>
       <c r="I24" s="5">
-        <v>142.26558572818851</v>
+        <v>152.02597838048447</v>
       </c>
       <c r="J24" s="5">
-        <v>176.65977662483166</v>
+        <v>186.81547488597465</v>
       </c>
       <c r="K24" s="5">
-        <v>186.65821983216284</v>
+        <v>198.40213426486073</v>
       </c>
       <c r="L24" s="5">
-        <v>209.33554657049191</v>
+        <v>218.22153102378564</v>
+      </c>
+      <c r="M24" s="5">
+        <v>233.22239292772031</v>
+      </c>
+      <c r="N24" s="5">
+        <v>285.15773413281045</v>
+      </c>
+      <c r="O24" s="5">
+        <v>293.00541921007755</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -1676,34 +1823,43 @@
         <v>45</v>
       </c>
       <c r="C25" s="5">
-        <v>3.6422956049014581</v>
+        <v>3.7525964526986733</v>
       </c>
       <c r="D25" s="5">
-        <v>3.9686376471863309</v>
+        <v>4.099081617755842</v>
       </c>
       <c r="E25" s="5">
-        <v>3.8722766924194776</v>
+        <v>3.9883905040607543</v>
       </c>
       <c r="F25" s="5">
-        <v>5.2171751967292668</v>
+        <v>5.4114671613004655</v>
       </c>
       <c r="G25" s="5">
-        <v>5.6935262561150068</v>
+        <v>5.9253840595809679</v>
       </c>
       <c r="H25" s="5">
-        <v>4.6605548773278915</v>
+        <v>4.7738384912781209</v>
       </c>
       <c r="I25" s="5">
-        <v>5.3913898045957671</v>
+        <v>5.5548056506553269</v>
       </c>
       <c r="J25" s="5">
-        <v>5.9882403700188398</v>
+        <v>6.1549098710492061</v>
       </c>
       <c r="K25" s="5">
-        <v>6.5096363171499565</v>
+        <v>6.7387361686488232</v>
       </c>
       <c r="L25" s="5">
-        <v>7.6979252089371357</v>
+        <v>7.8643684141306407</v>
+      </c>
+      <c r="M25" s="5">
+        <v>9.1665413636643134</v>
+      </c>
+      <c r="N25" s="5">
+        <v>10.036121120471446</v>
+      </c>
+      <c r="O25" s="5">
+        <v>9.5985841392794402</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
@@ -1712,43 +1868,43 @@
         <v>46</v>
       </c>
       <c r="C26" s="6">
-        <f>C23+C24-C25</f>
-        <v>754.74226077965636</v>
+        <v>789.25377480658437</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" ref="D26:K26" si="1">D23+D24-D25</f>
-        <v>814.85111285100265</v>
+        <v>862.13606341777688</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="1"/>
-        <v>823.52849824595171</v>
+        <v>869.08076498609319</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="1"/>
-        <v>1013.590104328231</v>
+        <v>1071.3643323180702</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="1"/>
-        <v>1190.7261188599543</v>
+        <v>1263.0377937352066</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="1"/>
-        <v>999.27193486595911</v>
+        <v>1042.0551056743125</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="1"/>
-        <v>1145.9886326793567</v>
+        <v>1204.3570256585654</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="1"/>
-        <v>1284.9714105142186</v>
+        <v>1339.467133085735</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="1"/>
-        <v>1380.3029715197265</v>
+        <v>1453.7113865081055</v>
       </c>
       <c r="L26" s="6">
-        <v>1624.1008393589573</v>
+        <v>1675.1724581669832</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1760.8921719769905</v>
+      </c>
+      <c r="N26" s="6">
+        <v>2115.2623793406897</v>
+      </c>
+      <c r="O26" s="6">
+        <v>2181.9646031305192</v>
       </c>
     </row>
   </sheetData>
